--- a/Sprint_6/FO.BD.GDC.SDC.006-001.xlsx
+++ b/Sprint_6/FO.BD.GDC.SDC.006-001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sdc-docs\Spring_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sdc-docs\Sprint_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4649,6 +4649,9 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Estimado</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln>
               <a:solidFill>
@@ -4659,6 +4662,28 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Product Backlog - option 1'!$F$5:$F$11</c:f>
@@ -4728,9 +4753,34 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Proyectado</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Product Backlog - option 1'!$F$5:$F$11</c:f>
@@ -4806,11 +4856,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="361386576"/>
-        <c:axId val="361389320"/>
+        <c:axId val="344092768"/>
+        <c:axId val="344087280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="361386576"/>
+        <c:axId val="344092768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4830,7 +4880,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361389320"/>
+        <c:crossAx val="344087280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4839,7 +4889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361389320"/>
+        <c:axId val="344087280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4873,7 +4923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="361386576"/>
+        <c:crossAx val="344092768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5184,11 +5234,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="361393240"/>
-        <c:axId val="361395200"/>
+        <c:axId val="344089240"/>
+        <c:axId val="344091200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="361393240"/>
+        <c:axId val="344089240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5208,7 +5258,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361395200"/>
+        <c:crossAx val="344091200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5217,7 +5267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361395200"/>
+        <c:axId val="344091200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5260,7 +5310,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361393240"/>
+        <c:crossAx val="344089240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5571,11 +5621,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="361390496"/>
-        <c:axId val="361385008"/>
+        <c:axId val="344090416"/>
+        <c:axId val="344095904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="361390496"/>
+        <c:axId val="344090416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5595,7 +5645,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361385008"/>
+        <c:crossAx val="344095904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5604,7 +5654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361385008"/>
+        <c:axId val="344095904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5647,7 +5697,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361390496"/>
+        <c:crossAx val="344090416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5838,8 +5888,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="361395984"/>
-        <c:axId val="361393632"/>
+        <c:axId val="344093160"/>
+        <c:axId val="344090808"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5906,11 +5956,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="361385792"/>
-        <c:axId val="361387752"/>
+        <c:axId val="344093552"/>
+        <c:axId val="344088848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="361395984"/>
+        <c:axId val="344093160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5976,7 +6026,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361393632"/>
+        <c:crossAx val="344090808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5984,7 +6034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361393632"/>
+        <c:axId val="344090808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6043,12 +6093,12 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361395984"/>
+        <c:crossAx val="344093160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="361385792"/>
+        <c:axId val="344093552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6058,7 +6108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="361387752"/>
+        <c:crossAx val="344088848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6066,7 +6116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361387752"/>
+        <c:axId val="344088848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6104,7 +6154,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361385792"/>
+        <c:crossAx val="344093552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6349,8 +6399,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="361386184"/>
-        <c:axId val="361398336"/>
+        <c:axId val="344095512"/>
+        <c:axId val="344092376"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6432,11 +6482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="361397160"/>
-        <c:axId val="361397944"/>
+        <c:axId val="344089632"/>
+        <c:axId val="344083752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="361386184"/>
+        <c:axId val="344095512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6510,7 +6560,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361398336"/>
+        <c:crossAx val="344092376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6518,7 +6568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361398336"/>
+        <c:axId val="344092376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6577,12 +6627,12 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361386184"/>
+        <c:crossAx val="344095512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="361397944"/>
+        <c:axId val="344083752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6620,12 +6670,12 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361397160"/>
+        <c:crossAx val="344089632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="361397160"/>
+        <c:axId val="344089632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6635,7 +6685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="361397944"/>
+        <c:crossAx val="344083752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7132,14 +7182,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -7532,7 +7582,7 @@
   <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="86" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
